--- a/QA/testcases/LLS/Provider/L_Prov_Remitter_To.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Remitter_To.xlsx
@@ -49,7 +49,7 @@
     <t>Reference Step</t>
   </si>
   <si>
-    <t>LLSPharmacyLogin</t>
+    <t>LLSProviderLogin</t>
   </si>
   <si>
     <t>Launch URL and login as Pharmacy</t>
@@ -76,7 +76,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>101-14-2278</t>
+    <t>101-14-3599</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -729,9 +729,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -760,6 +760,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -768,14 +775,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,19 +796,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,8 +812,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,22 +842,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,30 +866,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,6 +881,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -903,7 +903,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,43 +918,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor theme="4" tint="0.799890133365886"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,85 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,13 +990,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,30 +1098,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1134,25 +1140,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,6 +1160,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1198,20 +1213,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,10 +1242,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,134 +1272,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1386,7 +1407,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1458,7 +1480,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C102" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Actions"/>
   </tableColumns>
@@ -1726,8 +1748,8 @@
   <sheetPr/>
   <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1773,7 +1795,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6"/>
@@ -1788,24 +1810,24 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6">
@@ -1832,26 +1854,26 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -1870,26 +1892,26 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6">
@@ -1908,26 +1930,26 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6">
@@ -1946,26 +1968,26 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6">
@@ -1984,22 +2006,22 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
@@ -2024,22 +2046,22 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6">
@@ -2064,24 +2086,24 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>200</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
@@ -2104,26 +2126,26 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6">
@@ -2142,24 +2164,24 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
@@ -2186,26 +2208,26 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6">
@@ -2224,22 +2246,22 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6">
@@ -2262,22 +2284,22 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6">
@@ -2296,22 +2318,22 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
@@ -2330,26 +2352,26 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6">
@@ -2374,20 +2396,20 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8">
         <v>5</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6">
@@ -2408,26 +2430,26 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="6">
@@ -2448,26 +2470,26 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6">
@@ -2490,24 +2512,24 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6">
@@ -2532,20 +2554,20 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8">
         <v>3</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6">
@@ -2568,28 +2590,28 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6">
@@ -2614,20 +2636,20 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
         <v>5</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6">
@@ -2648,24 +2670,24 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6">
@@ -2686,20 +2708,20 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8">
         <v>10</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6">
@@ -2720,20 +2742,20 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8">
         <v>10</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6">
@@ -2758,26 +2780,26 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6">
@@ -2796,22 +2818,22 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="6">
@@ -2836,22 +2858,22 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="B57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6">
@@ -2876,24 +2898,24 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>200</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6">
@@ -2916,22 +2938,22 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6">
@@ -2952,22 +2974,22 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6">
@@ -2990,24 +3012,24 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="8">
         <v>62711</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="6">
@@ -3032,20 +3054,20 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8">
         <v>3</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6">
@@ -3068,28 +3090,28 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="6">
@@ -3114,20 +3136,20 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8">
         <v>5</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="6">
@@ -3148,24 +3170,24 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="C73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6">
@@ -3186,20 +3208,20 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8">
         <v>10</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6">
@@ -3220,20 +3242,20 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8">
         <v>10</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6">
@@ -3258,26 +3280,26 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="B79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7" t="s">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H79" s="7"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6">
@@ -3296,22 +3318,22 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6">
@@ -3330,26 +3352,26 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="B83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7" t="s">
+      <c r="E83" s="8"/>
+      <c r="F83" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H83" s="7"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:8">
       <c r="A84" s="6">
@@ -3376,28 +3398,28 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" s="4" customFormat="1" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H85" s="7"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" s="4" customFormat="1" spans="1:8">
       <c r="A86" s="6">
@@ -3422,22 +3444,22 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" s="4" customFormat="1" spans="1:8">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="7" t="s">
+      <c r="B87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="1:8">
       <c r="A88" s="6">
@@ -3462,20 +3484,20 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
         <v>5</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6">
@@ -3496,26 +3518,26 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="B91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H91" s="7"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6">
@@ -3536,26 +3558,26 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="7" t="s">
+      <c r="B93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7" t="s">
+      <c r="E93" s="8"/>
+      <c r="F93" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H93" s="7"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="6">
@@ -3578,24 +3600,24 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="C95" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="6">
@@ -3620,20 +3642,20 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8">
         <v>3</v>
       </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="6">
@@ -3656,28 +3678,28 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="C99" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H99" s="7"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="6">
@@ -3702,20 +3724,20 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8">
         <v>2</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="6">
@@ -3736,24 +3758,24 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="7" t="s">
+      <c r="C103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="6">
@@ -3774,20 +3796,20 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="7">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8">
         <v>10</v>
       </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6">
@@ -3808,20 +3830,20 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8">
         <v>10</v>
       </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6">
@@ -3846,26 +3868,26 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="B109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7" t="s">
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H109" s="7"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="6">
@@ -3884,22 +3906,22 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="7">
+      <c r="A111" s="8">
         <v>110</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="7" t="s">
+      <c r="B111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="6">
@@ -3918,22 +3940,22 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="7">
+      <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="7" t="s">
+      <c r="B113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" s="4" customFormat="1" spans="1:8">
       <c r="A114" s="6">
@@ -3960,28 +3982,28 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H115" s="7"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" s="4" customFormat="1" spans="1:8">
       <c r="A116" s="6">
@@ -4006,22 +4028,22 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:8">
-      <c r="A117" s="7">
+      <c r="A117" s="8">
         <v>116</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="7" t="s">
+      <c r="B117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" s="4" customFormat="1" spans="1:8">
       <c r="A118" s="6">
@@ -4046,20 +4068,20 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="7">
+      <c r="A119" s="8">
         <v>118</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8">
         <v>5</v>
       </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="6">
@@ -4080,26 +4102,26 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="7" t="s">
+      <c r="B121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
+      <c r="E121" s="8"/>
+      <c r="F121" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G121" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="7"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6">
@@ -4120,26 +4142,26 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="7">
+      <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="7" t="s">
+      <c r="B123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G123" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H123" s="7"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="6">
@@ -4162,24 +4184,24 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="7" t="s">
+      <c r="C125" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="6">
@@ -4204,20 +4226,20 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8">
         <v>5</v>
       </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="6">
@@ -4240,28 +4262,28 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="7">
+      <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="7" t="s">
+      <c r="C129" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G129" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H129" s="7"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
@@ -4286,20 +4308,20 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="7">
+      <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
         <v>5</v>
       </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="6">
@@ -4320,24 +4342,24 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="7">
+      <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="7" t="s">
+      <c r="C133" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="6">
@@ -4358,20 +4380,20 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="7">
+      <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8">
         <v>10</v>
       </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="6">
@@ -4392,20 +4414,20 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="7">
+      <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8">
         <v>10</v>
       </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="6">
@@ -4430,26 +4452,26 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="7">
+      <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="7" t="s">
+      <c r="B139" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G139" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H139" s="7"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="6">
@@ -4468,22 +4490,22 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="7">
+      <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="7" t="s">
+      <c r="B141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="6">
@@ -4502,22 +4524,22 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="7">
+      <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="7" t="s">
+      <c r="B143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="6">
@@ -4544,28 +4566,28 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
-      <c r="A145" s="7">
+      <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G145" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H145" s="7"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" s="4" customFormat="1" spans="1:8">
       <c r="A146" s="6">
@@ -4590,22 +4612,22 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" s="4" customFormat="1" spans="1:8">
-      <c r="A147" s="7">
+      <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="7" t="s">
+      <c r="B147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:8">
       <c r="A148" s="6">
@@ -4630,20 +4652,20 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="7">
+      <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7">
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8">
         <v>5</v>
       </c>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6">
@@ -4664,26 +4686,26 @@
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="7">
+      <c r="A151" s="8">
         <v>150</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="7" t="s">
+      <c r="B151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7" t="s">
+      <c r="E151" s="8"/>
+      <c r="F151" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="G151" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H151" s="7"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6">
@@ -4704,26 +4726,26 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="7">
+      <c r="A153" s="8">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="7" t="s">
+      <c r="B153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7" t="s">
+      <c r="E153" s="8"/>
+      <c r="F153" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G153" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H153" s="7"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="6">
@@ -4746,24 +4768,24 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="7">
+      <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155" s="7" t="s">
+      <c r="C155" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="6">
@@ -4784,22 +4806,22 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="7">
+      <c r="A157" s="8">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="6">
@@ -4820,24 +4842,24 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="7">
+      <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="7" t="s">
+      <c r="C159" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="8">
         <v>2</v>
       </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="6">
@@ -4860,26 +4882,26 @@
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="7">
+      <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" s="7" t="s">
+      <c r="B161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
+      <c r="E161" s="8"/>
+      <c r="F161" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G161" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H161" s="7"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="6">
@@ -4898,24 +4920,24 @@
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7">
+      <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="6">
@@ -4942,26 +4964,26 @@
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="7">
+      <c r="A165" s="8">
         <v>164</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" s="7" t="s">
+      <c r="B165" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7" t="s">
+      <c r="E165" s="8"/>
+      <c r="F165" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="G165" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H165" s="7"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="6">
@@ -4980,22 +5002,22 @@
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="7">
+      <c r="A167" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="7" t="s">
+      <c r="B167" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="6">
@@ -5018,22 +5040,22 @@
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="7">
+      <c r="A169" s="8">
         <v>168</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D169" s="7" t="s">
+      <c r="B169" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="6">
@@ -5052,22 +5074,22 @@
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="7">
+      <c r="A171" s="8">
         <v>170</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7" t="s">
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="G171" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H171" s="7"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="6">
@@ -5086,26 +5108,26 @@
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="7">
+      <c r="A173" s="8">
         <v>172</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="7" t="s">
+      <c r="C173" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7" t="s">
+      <c r="E173" s="8"/>
+      <c r="F173" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G173" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H173" s="7"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="6">
@@ -5130,20 +5152,20 @@
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="7">
+      <c r="A175" s="8">
         <v>174</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7">
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8">
         <v>5</v>
       </c>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="6">
@@ -5164,20 +5186,20 @@
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="7">
+      <c r="A177" s="8">
         <v>176</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8">
         <v>5</v>
       </c>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="6">
@@ -5198,28 +5220,28 @@
       <c r="H178" s="6"/>
     </row>
     <row r="179" s="4" customFormat="1" spans="1:8">
-      <c r="A179" s="7">
+      <c r="A179" s="8">
         <v>178</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="7" t="s">
+      <c r="C179" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G179" s="7" t="s">
+      <c r="G179" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H179" s="7"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180" s="4" customFormat="1" spans="1:8">
       <c r="A180" s="6">
@@ -5244,26 +5266,26 @@
       <c r="H180" s="6"/>
     </row>
     <row r="181" s="4" customFormat="1" spans="1:8">
-      <c r="A181" s="7">
+      <c r="A181" s="8">
         <v>180</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7" t="s">
+      <c r="E181" s="8"/>
+      <c r="F181" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="G181" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H181" s="7"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182" s="4" customFormat="1" spans="1:8">
       <c r="A182" s="6">
@@ -5288,24 +5310,24 @@
       <c r="H182" s="6"/>
     </row>
     <row r="183" s="4" customFormat="1" spans="1:8">
-      <c r="A183" s="7">
+      <c r="A183" s="8">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8">
         <v>4</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="G183" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H183" s="7"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184" s="4" customFormat="1" spans="1:8">
       <c r="A184" s="6">
@@ -5326,20 +5348,20 @@
       <c r="H184" s="6"/>
     </row>
     <row r="185" s="4" customFormat="1" spans="1:8">
-      <c r="A185" s="7">
+      <c r="A185" s="8">
         <v>184</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7">
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8">
         <v>8</v>
       </c>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186" s="4" customFormat="1" spans="1:8">
       <c r="A186" s="6">
@@ -5364,26 +5386,26 @@
       <c r="H186" s="6"/>
     </row>
     <row r="187" s="4" customFormat="1" spans="1:8">
-      <c r="A187" s="7">
+      <c r="A187" s="8">
         <v>186</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="7" t="s">
+      <c r="C187" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7" t="s">
+      <c r="E187" s="8"/>
+      <c r="F187" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G187" s="7" t="s">
+      <c r="G187" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H187" s="7"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188" s="4" customFormat="1" spans="1:8">
       <c r="A188" s="6">
@@ -5408,26 +5430,26 @@
       <c r="H188" s="6"/>
     </row>
     <row r="189" s="4" customFormat="1" spans="1:8">
-      <c r="A189" s="7">
+      <c r="A189" s="8">
         <v>188</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D189" s="7" t="s">
+      <c r="C189" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
+      <c r="E189" s="8"/>
+      <c r="F189" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="G189" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H189" s="7"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190" s="4" customFormat="1" spans="1:8">
       <c r="A190" s="6">
@@ -5452,26 +5474,26 @@
       <c r="H190" s="6"/>
     </row>
     <row r="191" s="4" customFormat="1" spans="1:8">
-      <c r="A191" s="7">
+      <c r="A191" s="8">
         <v>190</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D191" s="7" t="s">
+      <c r="B191" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7" t="s">
+      <c r="E191" s="8"/>
+      <c r="F191" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="G191" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H191" s="7"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192" s="4" customFormat="1" spans="1:8">
       <c r="A192" s="6">
@@ -5496,26 +5518,26 @@
       <c r="H192" s="6"/>
     </row>
     <row r="193" s="4" customFormat="1" spans="1:8">
-      <c r="A193" s="7">
+      <c r="A193" s="8">
         <v>192</v>
       </c>
-      <c r="B193" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D193" s="7" t="s">
+      <c r="B193" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7" t="s">
+      <c r="E193" s="8"/>
+      <c r="F193" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="G193" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H193" s="7"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194" s="4" customFormat="1" spans="1:8">
       <c r="A194" s="6">
@@ -5542,28 +5564,28 @@
       <c r="H194" s="6"/>
     </row>
     <row r="195" s="4" customFormat="1" spans="1:8">
-      <c r="A195" s="7">
+      <c r="A195" s="8">
         <v>194</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D195" s="7" t="s">
+      <c r="C195" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E195" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G195" s="7" t="s">
+      <c r="G195" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H195" s="7"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196" s="4" customFormat="1" spans="1:8">
       <c r="A196" s="6">
@@ -5584,24 +5606,24 @@
       <c r="H196" s="6"/>
     </row>
     <row r="197" s="4" customFormat="1" spans="1:8">
-      <c r="A197" s="7">
+      <c r="A197" s="8">
         <v>196</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" s="7" t="s">
+      <c r="C197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="8">
         <v>2</v>
       </c>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198" s="4" customFormat="1" spans="1:8">
       <c r="A198" s="6">
@@ -5624,24 +5646,24 @@
       <c r="H198" s="6"/>
     </row>
     <row r="199" s="4" customFormat="1" spans="1:8">
-      <c r="A199" s="7">
+      <c r="A199" s="8">
         <v>198</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="8">
         <v>10001</v>
       </c>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" s="4" customFormat="1" spans="1:8">
       <c r="A200" s="6">
@@ -5664,24 +5686,24 @@
       <c r="H200" s="6"/>
     </row>
     <row r="201" s="4" customFormat="1" spans="1:8">
-      <c r="A201" s="7">
+      <c r="A201" s="8">
         <v>200</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="8">
         <v>21331</v>
       </c>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202" s="4" customFormat="1" spans="1:8">
       <c r="A202" s="6">
@@ -5704,24 +5726,24 @@
       <c r="H202" s="6"/>
     </row>
     <row r="203" s="4" customFormat="1" spans="1:8">
-      <c r="A203" s="7">
+      <c r="A203" s="8">
         <v>202</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E203" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204" s="4" customFormat="1" spans="1:8">
       <c r="A204" s="6">
@@ -5744,24 +5766,24 @@
       <c r="H204" s="6"/>
     </row>
     <row r="205" s="4" customFormat="1" spans="1:8">
-      <c r="A205" s="7">
+      <c r="A205" s="8">
         <v>204</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E205" s="7" t="s">
+      <c r="E205" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
     </row>
     <row r="206" s="4" customFormat="1" spans="1:8">
       <c r="A206" s="6">
@@ -5782,24 +5804,24 @@
       <c r="H206" s="6"/>
     </row>
     <row r="207" s="4" customFormat="1" spans="1:8">
-      <c r="A207" s="7">
+      <c r="A207" s="8">
         <v>206</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7">
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8">
         <v>5</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F207" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G207" s="7" t="s">
+      <c r="G207" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H207" s="7"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="6">
@@ -5818,22 +5840,22 @@
       <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="7">
+      <c r="A209" s="8">
         <v>208</v>
       </c>
-      <c r="B209" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D209" s="7" t="s">
+      <c r="B209" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="6">
@@ -5858,22 +5880,22 @@
       <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="7">
+      <c r="A211" s="8">
         <v>210</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D211" s="7" t="s">
+      <c r="B211" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="6">
@@ -5898,24 +5920,24 @@
       <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="7">
+      <c r="A213" s="8">
         <v>212</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D213" s="7" t="s">
+      <c r="C213" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E213" s="8">
         <v>200</v>
       </c>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="6">
@@ -5938,26 +5960,26 @@
       <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="7">
+      <c r="A215" s="8">
         <v>214</v>
       </c>
-      <c r="B215" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D215" s="7" t="s">
+      <c r="B215" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7" t="s">
+      <c r="E215" s="8"/>
+      <c r="F215" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G215" s="7" t="s">
+      <c r="G215" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H215" s="7"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="6">
@@ -5976,24 +5998,24 @@
       <c r="H216" s="6"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="7">
+      <c r="A217" s="8">
         <v>216</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E217" s="7" t="s">
+      <c r="E217" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="6">
@@ -6020,26 +6042,26 @@
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="7">
+      <c r="A219" s="8">
         <v>218</v>
       </c>
-      <c r="B219" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D219" s="7" t="s">
+      <c r="B219" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7" t="s">
+      <c r="E219" s="8"/>
+      <c r="F219" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G219" s="7" t="s">
+      <c r="G219" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H219" s="7"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="6">
@@ -6058,22 +6080,22 @@
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="7">
+      <c r="A221" s="8">
         <v>220</v>
       </c>
-      <c r="B221" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D221" s="7" t="s">
+      <c r="B221" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="6">
@@ -6096,22 +6118,22 @@
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="7">
+      <c r="A223" s="8">
         <v>222</v>
       </c>
-      <c r="B223" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D223" s="7" t="s">
+      <c r="B223" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="6">
@@ -6130,22 +6152,22 @@
       <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="7">
+      <c r="A225" s="8">
         <v>224</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7" t="s">
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G225" s="7" t="s">
+      <c r="G225" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H225" s="7"/>
+      <c r="H225" s="8"/>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="6">
@@ -6164,26 +6186,26 @@
       <c r="H226" s="6"/>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="7">
+      <c r="A227" s="8">
         <v>226</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D227" s="7" t="s">
+      <c r="C227" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7" t="s">
+      <c r="E227" s="8"/>
+      <c r="F227" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G227" s="7" t="s">
+      <c r="G227" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H227" s="7"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="6">
@@ -6208,20 +6230,20 @@
       <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="7">
+      <c r="A229" s="8">
         <v>228</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7">
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8">
         <v>5</v>
       </c>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="6">
@@ -6242,20 +6264,20 @@
       <c r="H230" s="6"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="7">
+      <c r="A231" s="8">
         <v>230</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7">
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8">
         <v>5</v>
       </c>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="8"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="6">
@@ -6276,28 +6298,28 @@
       <c r="H232" s="6"/>
     </row>
     <row r="233" s="4" customFormat="1" spans="1:8">
-      <c r="A233" s="7">
+      <c r="A233" s="8">
         <v>232</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233" s="7" t="s">
+      <c r="C233" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="E233" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F233" s="7" t="s">
+      <c r="F233" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G233" s="7" t="s">
+      <c r="G233" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H233" s="7"/>
+      <c r="H233" s="8"/>
     </row>
     <row r="234" s="4" customFormat="1" spans="1:8">
       <c r="A234" s="6">
@@ -6324,26 +6346,26 @@
       <c r="H234" s="6"/>
     </row>
     <row r="235" s="4" customFormat="1" spans="1:8">
-      <c r="A235" s="7">
+      <c r="A235" s="8">
         <v>234</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D235" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7" t="s">
+      <c r="E235" s="8"/>
+      <c r="F235" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G235" s="7" t="s">
+      <c r="G235" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H235" s="7"/>
+      <c r="H235" s="8"/>
     </row>
     <row r="236" s="4" customFormat="1" spans="1:8">
       <c r="A236" s="6">
@@ -6368,24 +6390,24 @@
       <c r="H236" s="6"/>
     </row>
     <row r="237" s="4" customFormat="1" spans="1:8">
-      <c r="A237" s="7">
+      <c r="A237" s="8">
         <v>236</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7">
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8">
         <v>4</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="F237" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G237" s="7" t="s">
+      <c r="G237" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H237" s="7"/>
+      <c r="H237" s="8"/>
     </row>
     <row r="238" s="4" customFormat="1" spans="1:8">
       <c r="A238" s="6">
@@ -6406,20 +6428,20 @@
       <c r="H238" s="6"/>
     </row>
     <row r="239" s="4" customFormat="1" spans="1:8">
-      <c r="A239" s="7">
+      <c r="A239" s="8">
         <v>238</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7">
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8">
         <v>8</v>
       </c>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240" s="4" customFormat="1" spans="1:8">
       <c r="A240" s="6">
@@ -6444,26 +6466,26 @@
       <c r="H240" s="6"/>
     </row>
     <row r="241" s="4" customFormat="1" spans="1:8">
-      <c r="A241" s="7">
+      <c r="A241" s="8">
         <v>240</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D241" s="7" t="s">
+      <c r="C241" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7" t="s">
+      <c r="E241" s="8"/>
+      <c r="F241" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G241" s="7" t="s">
+      <c r="G241" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H241" s="7"/>
+      <c r="H241" s="8"/>
     </row>
     <row r="242" s="4" customFormat="1" spans="1:8">
       <c r="A242" s="6">
@@ -6488,26 +6510,26 @@
       <c r="H242" s="6"/>
     </row>
     <row r="243" s="4" customFormat="1" spans="1:8">
-      <c r="A243" s="7">
+      <c r="A243" s="8">
         <v>242</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D243" s="7" t="s">
+      <c r="C243" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7" t="s">
+      <c r="E243" s="8"/>
+      <c r="F243" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G243" s="7" t="s">
+      <c r="G243" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H243" s="7"/>
+      <c r="H243" s="8"/>
     </row>
     <row r="244" s="4" customFormat="1" spans="1:8">
       <c r="A244" s="6">
@@ -6532,26 +6554,26 @@
       <c r="H244" s="6"/>
     </row>
     <row r="245" s="4" customFormat="1" spans="1:8">
-      <c r="A245" s="7">
+      <c r="A245" s="8">
         <v>244</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D245" s="7" t="s">
+      <c r="B245" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7" t="s">
+      <c r="E245" s="8"/>
+      <c r="F245" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G245" s="7" t="s">
+      <c r="G245" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H245" s="7"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246" s="4" customFormat="1" spans="1:8">
       <c r="A246" s="6">
@@ -6576,26 +6598,26 @@
       <c r="H246" s="6"/>
     </row>
     <row r="247" s="4" customFormat="1" spans="1:8">
-      <c r="A247" s="7">
+      <c r="A247" s="8">
         <v>246</v>
       </c>
-      <c r="B247" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D247" s="7" t="s">
+      <c r="B247" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7" t="s">
+      <c r="E247" s="8"/>
+      <c r="F247" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G247" s="7" t="s">
+      <c r="G247" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H247" s="7"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248" s="4" customFormat="1" spans="1:8">
       <c r="A248" s="6">
@@ -6622,28 +6644,28 @@
       <c r="H248" s="6"/>
     </row>
     <row r="249" s="4" customFormat="1" spans="1:8">
-      <c r="A249" s="7">
+      <c r="A249" s="8">
         <v>248</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D249" s="7" t="s">
+      <c r="C249" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="E249" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="G249" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H249" s="7"/>
+      <c r="H249" s="8"/>
     </row>
     <row r="250" s="4" customFormat="1" spans="1:8">
       <c r="A250" s="6">
@@ -6664,24 +6686,24 @@
       <c r="H250" s="6"/>
     </row>
     <row r="251" s="4" customFormat="1" spans="1:8">
-      <c r="A251" s="7">
+      <c r="A251" s="8">
         <v>250</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C251" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D251" s="7" t="s">
+      <c r="C251" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E251" s="8">
         <v>2</v>
       </c>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
     </row>
     <row r="252" s="4" customFormat="1" spans="1:8">
       <c r="A252" s="6">
@@ -6704,24 +6726,24 @@
       <c r="H252" s="6"/>
     </row>
     <row r="253" s="4" customFormat="1" spans="1:8">
-      <c r="A253" s="7">
+      <c r="A253" s="8">
         <v>252</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D253" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E253" s="8">
         <v>10001</v>
       </c>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="8"/>
+      <c r="H253" s="8"/>
     </row>
     <row r="254" s="4" customFormat="1" spans="1:8">
       <c r="A254" s="6">
@@ -6744,24 +6766,24 @@
       <c r="H254" s="6"/>
     </row>
     <row r="255" s="4" customFormat="1" spans="1:8">
-      <c r="A255" s="7">
+      <c r="A255" s="8">
         <v>254</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D255" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E255" s="8">
         <v>21331</v>
       </c>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
     </row>
     <row r="256" s="4" customFormat="1" spans="1:8">
       <c r="A256" s="6">
@@ -6784,24 +6806,24 @@
       <c r="H256" s="6"/>
     </row>
     <row r="257" s="4" customFormat="1" spans="1:8">
-      <c r="A257" s="7">
+      <c r="A257" s="8">
         <v>256</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D257" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E257" s="7" t="s">
+      <c r="E257" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8"/>
     </row>
     <row r="258" s="4" customFormat="1" spans="1:8">
       <c r="A258" s="6">
@@ -6824,24 +6846,24 @@
       <c r="H258" s="6"/>
     </row>
     <row r="259" s="4" customFormat="1" spans="1:8">
-      <c r="A259" s="7">
+      <c r="A259" s="8">
         <v>258</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D259" s="7" t="s">
+      <c r="D259" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E259" s="7" t="s">
+      <c r="E259" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
     </row>
     <row r="260" s="4" customFormat="1" spans="1:8">
       <c r="A260" s="6">
@@ -6862,24 +6884,24 @@
       <c r="H260" s="6"/>
     </row>
     <row r="261" s="4" customFormat="1" spans="1:8">
-      <c r="A261" s="7">
+      <c r="A261" s="8">
         <v>260</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="7">
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8">
         <v>5</v>
       </c>
-      <c r="F261" s="7" t="s">
+      <c r="F261" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G261" s="7" t="s">
+      <c r="G261" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H261" s="7"/>
+      <c r="H261" s="8"/>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="6">
@@ -6898,22 +6920,22 @@
       <c r="H262" s="6"/>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="7">
+      <c r="A263" s="8">
         <v>262</v>
       </c>
-      <c r="B263" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D263" s="7" t="s">
+      <c r="B263" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="8"/>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="6">
@@ -6938,22 +6960,22 @@
       <c r="H264" s="6"/>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="7">
+      <c r="A265" s="8">
         <v>264</v>
       </c>
-      <c r="B265" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D265" s="7" t="s">
+      <c r="B265" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E265" s="7"/>
-      <c r="F265" s="7"/>
-      <c r="G265" s="7"/>
-      <c r="H265" s="7"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="8"/>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="6">
@@ -6978,24 +7000,24 @@
       <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="7">
+      <c r="A267" s="8">
         <v>266</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C267" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D267" s="7" t="s">
+      <c r="C267" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E267" s="7">
+      <c r="E267" s="8">
         <v>200</v>
       </c>
-      <c r="F267" s="7"/>
-      <c r="G267" s="7"/>
-      <c r="H267" s="7"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8"/>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="6">
@@ -7018,26 +7040,26 @@
       <c r="H268" s="6"/>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="7">
+      <c r="A269" s="8">
         <v>268</v>
       </c>
-      <c r="B269" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D269" s="7" t="s">
+      <c r="B269" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7" t="s">
+      <c r="E269" s="8"/>
+      <c r="F269" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G269" s="7" t="s">
+      <c r="G269" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H269" s="7"/>
+      <c r="H269" s="8"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="6">
@@ -7056,24 +7078,24 @@
       <c r="H270" s="6"/>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="7">
+      <c r="A271" s="8">
         <v>270</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D271" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E271" s="7" t="s">
+      <c r="E271" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+      <c r="H271" s="8"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="6">
@@ -7100,26 +7122,26 @@
       <c r="H272" s="6"/>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="7">
+      <c r="A273" s="8">
         <v>272</v>
       </c>
-      <c r="B273" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D273" s="7" t="s">
+      <c r="B273" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7" t="s">
+      <c r="E273" s="8"/>
+      <c r="F273" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G273" s="7" t="s">
+      <c r="G273" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H273" s="7"/>
+      <c r="H273" s="8"/>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="6">
@@ -7138,22 +7160,22 @@
       <c r="H274" s="6"/>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="7">
+      <c r="A275" s="8">
         <v>274</v>
       </c>
-      <c r="B275" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D275" s="7" t="s">
+      <c r="B275" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="6">
@@ -7176,22 +7198,22 @@
       <c r="H276" s="6"/>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="7">
+      <c r="A277" s="8">
         <v>276</v>
       </c>
-      <c r="B277" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D277" s="7" t="s">
+      <c r="B277" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="8"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="6">
@@ -7210,22 +7232,22 @@
       <c r="H278" s="6"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="7">
+      <c r="A279" s="8">
         <v>278</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C279" s="7"/>
-      <c r="D279" s="7"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7" t="s">
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G279" s="7" t="s">
+      <c r="G279" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H279" s="7"/>
+      <c r="H279" s="8"/>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="6">
@@ -7244,26 +7266,26 @@
       <c r="H280" s="6"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="7">
+      <c r="A281" s="8">
         <v>280</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D281" s="7" t="s">
+      <c r="C281" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7" t="s">
+      <c r="E281" s="8"/>
+      <c r="F281" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G281" s="7" t="s">
+      <c r="G281" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H281" s="7"/>
+      <c r="H281" s="8"/>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="6">
@@ -7288,20 +7310,20 @@
       <c r="H282" s="6"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="7">
+      <c r="A283" s="8">
         <v>282</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7">
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8">
         <v>5</v>
       </c>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="6">
@@ -7322,20 +7344,20 @@
       <c r="H284" s="6"/>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="7">
+      <c r="A285" s="8">
         <v>284</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7">
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8">
         <v>5</v>
       </c>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="6">
@@ -7356,28 +7378,28 @@
       <c r="H286" s="6"/>
     </row>
     <row r="287" s="4" customFormat="1" spans="1:8">
-      <c r="A287" s="7">
+      <c r="A287" s="8">
         <v>286</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D287" s="7" t="s">
+      <c r="C287" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E287" s="7" t="s">
+      <c r="E287" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F287" s="7" t="s">
+      <c r="F287" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G287" s="7" t="s">
+      <c r="G287" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H287" s="7"/>
+      <c r="H287" s="8"/>
     </row>
     <row r="288" s="4" customFormat="1" spans="1:8">
       <c r="A288" s="6">
@@ -7404,26 +7426,26 @@
       <c r="H288" s="6"/>
     </row>
     <row r="289" s="4" customFormat="1" spans="1:8">
-      <c r="A289" s="7">
+      <c r="A289" s="8">
         <v>288</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D289" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7" t="s">
+      <c r="E289" s="8"/>
+      <c r="F289" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G289" s="7" t="s">
+      <c r="G289" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H289" s="7"/>
+      <c r="H289" s="8"/>
     </row>
     <row r="290" s="4" customFormat="1" spans="1:8">
       <c r="A290" s="6">
@@ -7448,24 +7470,24 @@
       <c r="H290" s="6"/>
     </row>
     <row r="291" s="4" customFormat="1" spans="1:8">
-      <c r="A291" s="7">
+      <c r="A291" s="8">
         <v>290</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7">
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8">
         <v>4</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F291" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G291" s="7" t="s">
+      <c r="G291" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H291" s="7"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292" s="4" customFormat="1" spans="1:8">
       <c r="A292" s="6">
@@ -7486,20 +7508,20 @@
       <c r="H292" s="6"/>
     </row>
     <row r="293" s="4" customFormat="1" spans="1:8">
-      <c r="A293" s="7">
+      <c r="A293" s="8">
         <v>292</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C293" s="7"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="7">
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8">
         <v>8</v>
       </c>
-      <c r="F293" s="7"/>
-      <c r="G293" s="7"/>
-      <c r="H293" s="7"/>
+      <c r="F293" s="8"/>
+      <c r="G293" s="8"/>
+      <c r="H293" s="8"/>
     </row>
     <row r="294" s="4" customFormat="1" spans="1:8">
       <c r="A294" s="6">
@@ -7524,26 +7546,26 @@
       <c r="H294" s="6"/>
     </row>
     <row r="295" s="4" customFormat="1" spans="1:8">
-      <c r="A295" s="7">
+      <c r="A295" s="8">
         <v>294</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D295" s="7" t="s">
+      <c r="C295" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E295" s="7"/>
-      <c r="F295" s="7" t="s">
+      <c r="E295" s="8"/>
+      <c r="F295" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G295" s="7" t="s">
+      <c r="G295" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H295" s="7"/>
+      <c r="H295" s="8"/>
     </row>
     <row r="296" s="4" customFormat="1" spans="1:8">
       <c r="A296" s="6">
@@ -7568,26 +7590,26 @@
       <c r="H296" s="6"/>
     </row>
     <row r="297" s="4" customFormat="1" spans="1:8">
-      <c r="A297" s="7">
+      <c r="A297" s="8">
         <v>296</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C297" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D297" s="7" t="s">
+      <c r="C297" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7" t="s">
+      <c r="E297" s="8"/>
+      <c r="F297" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G297" s="7" t="s">
+      <c r="G297" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H297" s="7"/>
+      <c r="H297" s="8"/>
     </row>
     <row r="298" s="4" customFormat="1" spans="1:8">
       <c r="A298" s="6">
@@ -7612,26 +7634,26 @@
       <c r="H298" s="6"/>
     </row>
     <row r="299" s="4" customFormat="1" spans="1:8">
-      <c r="A299" s="7">
+      <c r="A299" s="8">
         <v>298</v>
       </c>
-      <c r="B299" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D299" s="7" t="s">
+      <c r="B299" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E299" s="7"/>
-      <c r="F299" s="7" t="s">
+      <c r="E299" s="8"/>
+      <c r="F299" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G299" s="7" t="s">
+      <c r="G299" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H299" s="7"/>
+      <c r="H299" s="8"/>
     </row>
     <row r="300" s="4" customFormat="1" spans="1:8">
       <c r="A300" s="6">
@@ -7656,26 +7678,26 @@
       <c r="H300" s="6"/>
     </row>
     <row r="301" s="4" customFormat="1" spans="1:8">
-      <c r="A301" s="7">
+      <c r="A301" s="8">
         <v>300</v>
       </c>
-      <c r="B301" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D301" s="7" t="s">
+      <c r="B301" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E301" s="7"/>
-      <c r="F301" s="7" t="s">
+      <c r="E301" s="8"/>
+      <c r="F301" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G301" s="7" t="s">
+      <c r="G301" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H301" s="7"/>
+      <c r="H301" s="8"/>
     </row>
     <row r="302" s="4" customFormat="1" spans="1:8">
       <c r="A302" s="6">
@@ -7702,28 +7724,28 @@
       <c r="H302" s="6"/>
     </row>
     <row r="303" s="4" customFormat="1" spans="1:8">
-      <c r="A303" s="7">
+      <c r="A303" s="8">
         <v>302</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C303" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D303" s="7" t="s">
+      <c r="C303" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E303" s="7" t="s">
+      <c r="E303" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F303" s="7" t="s">
+      <c r="F303" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G303" s="7" t="s">
+      <c r="G303" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H303" s="7"/>
+      <c r="H303" s="8"/>
     </row>
     <row r="304" s="4" customFormat="1" spans="1:8">
       <c r="A304" s="6">
@@ -7744,24 +7766,24 @@
       <c r="H304" s="6"/>
     </row>
     <row r="305" s="4" customFormat="1" spans="1:8">
-      <c r="A305" s="7">
+      <c r="A305" s="8">
         <v>304</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C305" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D305" s="7" t="s">
+      <c r="C305" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E305" s="7">
+      <c r="E305" s="8">
         <v>2</v>
       </c>
-      <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="7"/>
+      <c r="F305" s="8"/>
+      <c r="G305" s="8"/>
+      <c r="H305" s="8"/>
     </row>
     <row r="306" s="4" customFormat="1" spans="1:8">
       <c r="A306" s="6">
@@ -7784,24 +7806,24 @@
       <c r="H306" s="6"/>
     </row>
     <row r="307" s="4" customFormat="1" spans="1:8">
-      <c r="A307" s="7">
+      <c r="A307" s="8">
         <v>306</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D307" s="7" t="s">
+      <c r="D307" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E307" s="7">
+      <c r="E307" s="8">
         <v>10001</v>
       </c>
-      <c r="F307" s="7"/>
-      <c r="G307" s="7"/>
-      <c r="H307" s="7"/>
+      <c r="F307" s="8"/>
+      <c r="G307" s="8"/>
+      <c r="H307" s="8"/>
     </row>
     <row r="308" s="4" customFormat="1" spans="1:8">
       <c r="A308" s="6">
@@ -7824,24 +7846,24 @@
       <c r="H308" s="6"/>
     </row>
     <row r="309" s="4" customFormat="1" spans="1:8">
-      <c r="A309" s="7">
+      <c r="A309" s="8">
         <v>308</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D309" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E309" s="7">
+      <c r="E309" s="8">
         <v>21331</v>
       </c>
-      <c r="F309" s="7"/>
-      <c r="G309" s="7"/>
-      <c r="H309" s="7"/>
+      <c r="F309" s="8"/>
+      <c r="G309" s="8"/>
+      <c r="H309" s="8"/>
     </row>
     <row r="310" s="4" customFormat="1" spans="1:8">
       <c r="A310" s="6">
@@ -7864,24 +7886,24 @@
       <c r="H310" s="6"/>
     </row>
     <row r="311" s="4" customFormat="1" spans="1:8">
-      <c r="A311" s="7">
+      <c r="A311" s="8">
         <v>310</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="D311" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E311" s="7" t="s">
+      <c r="E311" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F311" s="7"/>
-      <c r="G311" s="7"/>
-      <c r="H311" s="7"/>
+      <c r="F311" s="8"/>
+      <c r="G311" s="8"/>
+      <c r="H311" s="8"/>
     </row>
     <row r="312" s="4" customFormat="1" spans="1:8">
       <c r="A312" s="6">
@@ -7904,24 +7926,24 @@
       <c r="H312" s="6"/>
     </row>
     <row r="313" s="4" customFormat="1" spans="1:8">
-      <c r="A313" s="7">
+      <c r="A313" s="8">
         <v>312</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D313" s="7" t="s">
+      <c r="D313" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E313" s="7" t="s">
+      <c r="E313" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F313" s="7"/>
-      <c r="G313" s="7"/>
-      <c r="H313" s="7"/>
+      <c r="F313" s="8"/>
+      <c r="G313" s="8"/>
+      <c r="H313" s="8"/>
     </row>
     <row r="314" s="4" customFormat="1" spans="1:8">
       <c r="A314" s="6">
@@ -7942,24 +7964,24 @@
       <c r="H314" s="6"/>
     </row>
     <row r="315" s="4" customFormat="1" spans="1:8">
-      <c r="A315" s="7">
+      <c r="A315" s="8">
         <v>314</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="7">
+      <c r="C315" s="8"/>
+      <c r="D315" s="8"/>
+      <c r="E315" s="8">
         <v>5</v>
       </c>
-      <c r="F315" s="7" t="s">
+      <c r="F315" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G315" s="7" t="s">
+      <c r="G315" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H315" s="7"/>
+      <c r="H315" s="8"/>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="6">
@@ -7978,22 +8000,22 @@
       <c r="H316" s="6"/>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="7">
+      <c r="A317" s="8">
         <v>316</v>
       </c>
-      <c r="B317" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D317" s="7" t="s">
+      <c r="B317" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
-      <c r="G317" s="7"/>
-      <c r="H317" s="7"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="8"/>
+      <c r="H317" s="8"/>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="6">
@@ -8018,22 +8040,22 @@
       <c r="H318" s="6"/>
     </row>
     <row r="319" spans="1:8">
-      <c r="A319" s="7">
+      <c r="A319" s="8">
         <v>318</v>
       </c>
-      <c r="B319" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D319" s="7" t="s">
+      <c r="B319" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E319" s="7"/>
-      <c r="F319" s="7"/>
-      <c r="G319" s="7"/>
-      <c r="H319" s="7"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="8"/>
+      <c r="G319" s="8"/>
+      <c r="H319" s="8"/>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="6">
@@ -8058,24 +8080,24 @@
       <c r="H320" s="6"/>
     </row>
     <row r="321" spans="1:8">
-      <c r="A321" s="7">
+      <c r="A321" s="8">
         <v>320</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C321" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D321" s="7" t="s">
+      <c r="C321" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E321" s="7">
+      <c r="E321" s="8">
         <v>200</v>
       </c>
-      <c r="F321" s="7"/>
-      <c r="G321" s="7"/>
-      <c r="H321" s="7"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="6">
@@ -8098,22 +8120,22 @@
       <c r="H322" s="6"/>
     </row>
     <row r="323" spans="1:8">
-      <c r="A323" s="7">
+      <c r="A323" s="8">
         <v>322</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D323" s="7" t="s">
+      <c r="D323" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E323" s="7"/>
-      <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
-      <c r="H323" s="7"/>
+      <c r="E323" s="8"/>
+      <c r="F323" s="8"/>
+      <c r="G323" s="8"/>
+      <c r="H323" s="8"/>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="6">
@@ -8134,22 +8156,22 @@
       <c r="H324" s="6"/>
     </row>
     <row r="325" spans="1:8">
-      <c r="A325" s="7">
+      <c r="A325" s="8">
         <v>324</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D325" s="7" t="s">
+      <c r="D325" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E325" s="7"/>
-      <c r="F325" s="7"/>
-      <c r="G325" s="7"/>
-      <c r="H325" s="7"/>
+      <c r="E325" s="8"/>
+      <c r="F325" s="8"/>
+      <c r="G325" s="8"/>
+      <c r="H325" s="8"/>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="6">
@@ -8172,24 +8194,24 @@
       <c r="H326" s="6"/>
     </row>
     <row r="327" spans="1:8">
-      <c r="A327" s="7">
+      <c r="A327" s="8">
         <v>326</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D327" s="7" t="s">
+      <c r="D327" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E327" s="7">
+      <c r="E327" s="8">
         <v>62711</v>
       </c>
-      <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
-      <c r="H327" s="7"/>
+      <c r="F327" s="8"/>
+      <c r="G327" s="8"/>
+      <c r="H327" s="8"/>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="6">
@@ -8214,20 +8236,20 @@
       <c r="H328" s="6"/>
     </row>
     <row r="329" spans="1:8">
-      <c r="A329" s="7">
+      <c r="A329" s="8">
         <v>328</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7">
+      <c r="C329" s="8"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="8">
         <v>5</v>
       </c>
-      <c r="F329" s="7"/>
-      <c r="G329" s="7"/>
-      <c r="H329" s="7"/>
+      <c r="F329" s="8"/>
+      <c r="G329" s="8"/>
+      <c r="H329" s="8"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="6">
@@ -8250,28 +8272,28 @@
       <c r="H330" s="6"/>
     </row>
     <row r="331" spans="1:8">
-      <c r="A331" s="7">
+      <c r="A331" s="8">
         <v>330</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C331" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D331" s="7" t="s">
+      <c r="C331" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E331" s="7" t="s">
+      <c r="E331" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F331" s="7" t="s">
+      <c r="F331" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G331" s="7" t="s">
+      <c r="G331" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H331" s="7"/>
+      <c r="H331" s="8"/>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="6">
@@ -8296,20 +8318,20 @@
       <c r="H332" s="6"/>
     </row>
     <row r="333" spans="1:8">
-      <c r="A333" s="7">
+      <c r="A333" s="8">
         <v>332</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7">
+      <c r="C333" s="8"/>
+      <c r="D333" s="8"/>
+      <c r="E333" s="8">
         <v>5</v>
       </c>
-      <c r="F333" s="7"/>
-      <c r="G333" s="7"/>
-      <c r="H333" s="7"/>
+      <c r="F333" s="8"/>
+      <c r="G333" s="8"/>
+      <c r="H333" s="8"/>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="6">
@@ -8330,24 +8352,24 @@
       <c r="H334" s="6"/>
     </row>
     <row r="335" spans="1:8">
-      <c r="A335" s="7">
+      <c r="A335" s="8">
         <v>334</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C335" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D335" s="7" t="s">
+      <c r="C335" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E335" s="7" t="s">
+      <c r="E335" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
-      <c r="H335" s="7"/>
+      <c r="F335" s="8"/>
+      <c r="G335" s="8"/>
+      <c r="H335" s="8"/>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="6">
@@ -8368,20 +8390,20 @@
       <c r="H336" s="6"/>
     </row>
     <row r="337" spans="1:8">
-      <c r="A337" s="7">
+      <c r="A337" s="8">
         <v>336</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C337" s="7"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="7">
+      <c r="C337" s="8"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="8">
         <v>10</v>
       </c>
-      <c r="F337" s="7"/>
-      <c r="G337" s="7"/>
-      <c r="H337" s="7"/>
+      <c r="F337" s="8"/>
+      <c r="G337" s="8"/>
+      <c r="H337" s="8"/>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="6">
@@ -8402,20 +8424,20 @@
       <c r="H338" s="6"/>
     </row>
     <row r="339" spans="1:8">
-      <c r="A339" s="7">
+      <c r="A339" s="8">
         <v>338</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C339" s="7"/>
-      <c r="D339" s="7"/>
-      <c r="E339" s="7">
+      <c r="C339" s="8"/>
+      <c r="D339" s="8"/>
+      <c r="E339" s="8">
         <v>10</v>
       </c>
-      <c r="F339" s="7"/>
-      <c r="G339" s="7"/>
-      <c r="H339" s="7"/>
+      <c r="F339" s="8"/>
+      <c r="G339" s="8"/>
+      <c r="H339" s="8"/>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="6">
@@ -8441,7 +8463,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>DataList!$C$2:$C$102</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
@@ -8457,10 +8479,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -9024,6 +9046,11 @@
     <row r="101" spans="3:3">
       <c r="C101" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
